--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bafor\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bafor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC5E9CF6-856E-42B7-BA2E-BF09370BD8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE7A6EB-E7F6-46D4-951C-DCDC64D765DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0FE93BE3-EE77-4CAB-A76D-284F25DC0E08}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>AO</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Value_cm</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>ZY</t>
+  </si>
+  <si>
+    <t>XW</t>
   </si>
 </sst>
 </file>
@@ -403,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE757FB-4456-44C5-9D0D-EBE861DFEB0E}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,6 +528,66 @@
         <v>-3</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bafor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE7A6EB-E7F6-46D4-951C-DCDC64D765DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303FDCE9-6C3F-4478-83E3-C7EB8860C1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0FE93BE3-EE77-4CAB-A76D-284F25DC0E08}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Value_connector</t>
   </si>
   <si>
-    <t>cm</t>
-  </si>
-  <si>
     <t>Value_cm</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>XW</t>
+  </si>
+  <si>
+    <t>cm_or_AO2</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,10 +442,10 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>-2</v>
@@ -562,7 +562,7 @@
         <v>-2</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>-1</v>
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>3</v>
